--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_301.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_301.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33252-d217253-Reviews-Grafton_on_Sunset-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>493</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Grafton-On-Sunset.h11087.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_301.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_301.xlsx
@@ -6777,7 +6777,7 @@
         <v>17451</v>
       </c>
       <c r="B2" t="n">
-        <v>149515</v>
+        <v>181007</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6842,7 +6842,7 @@
         <v>17451</v>
       </c>
       <c r="B3" t="n">
-        <v>149516</v>
+        <v>181008</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -6972,7 +6972,7 @@
         <v>17451</v>
       </c>
       <c r="B5" t="n">
-        <v>149517</v>
+        <v>181009</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -7041,7 +7041,7 @@
         <v>17451</v>
       </c>
       <c r="B6" t="n">
-        <v>149518</v>
+        <v>181010</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -7106,7 +7106,7 @@
         <v>17451</v>
       </c>
       <c r="B7" t="n">
-        <v>149519</v>
+        <v>181011</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -7171,7 +7171,7 @@
         <v>17451</v>
       </c>
       <c r="B8" t="n">
-        <v>149520</v>
+        <v>181012</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -7232,7 +7232,7 @@
         <v>17451</v>
       </c>
       <c r="B9" t="n">
-        <v>149521</v>
+        <v>181013</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -7362,7 +7362,7 @@
         <v>17451</v>
       </c>
       <c r="B11" t="n">
-        <v>149522</v>
+        <v>181014</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
@@ -7427,7 +7427,7 @@
         <v>17451</v>
       </c>
       <c r="B12" t="n">
-        <v>149523</v>
+        <v>181015</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
@@ -7492,7 +7492,7 @@
         <v>17451</v>
       </c>
       <c r="B13" t="n">
-        <v>149524</v>
+        <v>181016</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -7618,7 +7618,7 @@
         <v>17451</v>
       </c>
       <c r="B15" t="n">
-        <v>149525</v>
+        <v>181017</v>
       </c>
       <c r="C15" t="s">
         <v>156</v>
@@ -7683,7 +7683,7 @@
         <v>17451</v>
       </c>
       <c r="B16" t="n">
-        <v>149526</v>
+        <v>181018</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
@@ -7813,7 +7813,7 @@
         <v>17451</v>
       </c>
       <c r="B18" t="n">
-        <v>149527</v>
+        <v>181019</v>
       </c>
       <c r="C18" t="s">
         <v>182</v>
@@ -7878,7 +7878,7 @@
         <v>17451</v>
       </c>
       <c r="B19" t="n">
-        <v>149528</v>
+        <v>181020</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
@@ -7943,7 +7943,7 @@
         <v>17451</v>
       </c>
       <c r="B20" t="n">
-        <v>149529</v>
+        <v>181021</v>
       </c>
       <c r="C20" t="s">
         <v>197</v>
@@ -8012,7 +8012,7 @@
         <v>17451</v>
       </c>
       <c r="B21" t="n">
-        <v>149530</v>
+        <v>181022</v>
       </c>
       <c r="C21" t="s">
         <v>205</v>
@@ -8213,7 +8213,7 @@
         <v>17451</v>
       </c>
       <c r="B24" t="n">
-        <v>149531</v>
+        <v>181023</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -8345,7 +8345,7 @@
         <v>17451</v>
       </c>
       <c r="B26" t="n">
-        <v>149532</v>
+        <v>181024</v>
       </c>
       <c r="C26" t="s">
         <v>245</v>
@@ -8414,7 +8414,7 @@
         <v>17451</v>
       </c>
       <c r="B27" t="n">
-        <v>149533</v>
+        <v>181025</v>
       </c>
       <c r="C27" t="s">
         <v>252</v>
@@ -8544,7 +8544,7 @@
         <v>17451</v>
       </c>
       <c r="B29" t="n">
-        <v>149534</v>
+        <v>181026</v>
       </c>
       <c r="C29" t="s">
         <v>265</v>
@@ -8680,7 +8680,7 @@
         <v>17451</v>
       </c>
       <c r="B31" t="n">
-        <v>149535</v>
+        <v>181027</v>
       </c>
       <c r="C31" t="s">
         <v>281</v>
@@ -8745,7 +8745,7 @@
         <v>17451</v>
       </c>
       <c r="B32" t="n">
-        <v>149536</v>
+        <v>181028</v>
       </c>
       <c r="C32" t="s">
         <v>287</v>
@@ -8810,7 +8810,7 @@
         <v>17451</v>
       </c>
       <c r="B33" t="n">
-        <v>149537</v>
+        <v>181029</v>
       </c>
       <c r="C33" t="s">
         <v>294</v>
@@ -8881,7 +8881,7 @@
         <v>17451</v>
       </c>
       <c r="B34" t="n">
-        <v>149538</v>
+        <v>181030</v>
       </c>
       <c r="C34" t="s">
         <v>301</v>
@@ -9015,7 +9015,7 @@
         <v>17451</v>
       </c>
       <c r="B36" t="n">
-        <v>149539</v>
+        <v>181031</v>
       </c>
       <c r="C36" t="s">
         <v>317</v>
@@ -9151,7 +9151,7 @@
         <v>17451</v>
       </c>
       <c r="B38" t="n">
-        <v>149540</v>
+        <v>181032</v>
       </c>
       <c r="C38" t="s">
         <v>334</v>
@@ -9212,7 +9212,7 @@
         <v>17451</v>
       </c>
       <c r="B39" t="n">
-        <v>149541</v>
+        <v>181033</v>
       </c>
       <c r="C39" t="s">
         <v>343</v>
@@ -9421,7 +9421,7 @@
         <v>17451</v>
       </c>
       <c r="B42" t="n">
-        <v>149542</v>
+        <v>181034</v>
       </c>
       <c r="C42" t="s">
         <v>364</v>
@@ -9490,7 +9490,7 @@
         <v>17451</v>
       </c>
       <c r="B43" t="n">
-        <v>149543</v>
+        <v>181035</v>
       </c>
       <c r="C43" t="s">
         <v>370</v>
@@ -9561,7 +9561,7 @@
         <v>17451</v>
       </c>
       <c r="B44" t="n">
-        <v>149544</v>
+        <v>181036</v>
       </c>
       <c r="C44" t="s">
         <v>379</v>
@@ -9632,7 +9632,7 @@
         <v>17451</v>
       </c>
       <c r="B45" t="n">
-        <v>149545</v>
+        <v>181037</v>
       </c>
       <c r="C45" t="s">
         <v>388</v>
@@ -9701,7 +9701,7 @@
         <v>17451</v>
       </c>
       <c r="B46" t="n">
-        <v>149546</v>
+        <v>181038</v>
       </c>
       <c r="C46" t="s">
         <v>395</v>
@@ -9835,7 +9835,7 @@
         <v>17451</v>
       </c>
       <c r="B48" t="n">
-        <v>149547</v>
+        <v>181039</v>
       </c>
       <c r="C48" t="s">
         <v>409</v>
@@ -9906,7 +9906,7 @@
         <v>17451</v>
       </c>
       <c r="B49" t="n">
-        <v>149548</v>
+        <v>181040</v>
       </c>
       <c r="C49" t="s">
         <v>418</v>
@@ -9971,7 +9971,7 @@
         <v>17451</v>
       </c>
       <c r="B50" t="n">
-        <v>149549</v>
+        <v>181041</v>
       </c>
       <c r="C50" t="s">
         <v>427</v>
@@ -10036,7 +10036,7 @@
         <v>17451</v>
       </c>
       <c r="B51" t="n">
-        <v>149550</v>
+        <v>181042</v>
       </c>
       <c r="C51" t="s">
         <v>434</v>
@@ -10105,7 +10105,7 @@
         <v>17451</v>
       </c>
       <c r="B52" t="n">
-        <v>149551</v>
+        <v>181043</v>
       </c>
       <c r="C52" t="s">
         <v>441</v>
@@ -10170,7 +10170,7 @@
         <v>17451</v>
       </c>
       <c r="B53" t="n">
-        <v>149552</v>
+        <v>181044</v>
       </c>
       <c r="C53" t="s">
         <v>448</v>
@@ -10239,7 +10239,7 @@
         <v>17451</v>
       </c>
       <c r="B54" t="n">
-        <v>149553</v>
+        <v>181045</v>
       </c>
       <c r="C54" t="s">
         <v>458</v>
@@ -10310,7 +10310,7 @@
         <v>17451</v>
       </c>
       <c r="B55" t="n">
-        <v>149554</v>
+        <v>181046</v>
       </c>
       <c r="C55" t="s">
         <v>467</v>
@@ -10444,7 +10444,7 @@
         <v>17451</v>
       </c>
       <c r="B57" t="n">
-        <v>149555</v>
+        <v>181047</v>
       </c>
       <c r="C57" t="s">
         <v>484</v>
@@ -10509,7 +10509,7 @@
         <v>17451</v>
       </c>
       <c r="B58" t="n">
-        <v>149556</v>
+        <v>181048</v>
       </c>
       <c r="C58" t="s">
         <v>493</v>
@@ -10645,7 +10645,7 @@
         <v>17451</v>
       </c>
       <c r="B60" t="n">
-        <v>149557</v>
+        <v>181049</v>
       </c>
       <c r="C60" t="s">
         <v>511</v>
@@ -10716,7 +10716,7 @@
         <v>17451</v>
       </c>
       <c r="B61" t="n">
-        <v>149558</v>
+        <v>181050</v>
       </c>
       <c r="C61" t="s">
         <v>518</v>
@@ -10785,7 +10785,7 @@
         <v>17451</v>
       </c>
       <c r="B62" t="n">
-        <v>149559</v>
+        <v>181051</v>
       </c>
       <c r="C62" t="s">
         <v>525</v>
@@ -10915,7 +10915,7 @@
         <v>17451</v>
       </c>
       <c r="B64" t="n">
-        <v>149560</v>
+        <v>181052</v>
       </c>
       <c r="C64" t="s">
         <v>541</v>
@@ -10986,7 +10986,7 @@
         <v>17451</v>
       </c>
       <c r="B65" t="n">
-        <v>149561</v>
+        <v>181053</v>
       </c>
       <c r="C65" t="s">
         <v>548</v>
@@ -11051,7 +11051,7 @@
         <v>17451</v>
       </c>
       <c r="B66" t="n">
-        <v>149562</v>
+        <v>181054</v>
       </c>
       <c r="C66" t="s">
         <v>557</v>
@@ -11116,7 +11116,7 @@
         <v>17451</v>
       </c>
       <c r="B67" t="n">
-        <v>149563</v>
+        <v>181055</v>
       </c>
       <c r="C67" t="s">
         <v>563</v>
@@ -11177,7 +11177,7 @@
         <v>17451</v>
       </c>
       <c r="B68" t="n">
-        <v>149564</v>
+        <v>181056</v>
       </c>
       <c r="C68" t="s">
         <v>569</v>
@@ -11242,7 +11242,7 @@
         <v>17451</v>
       </c>
       <c r="B69" t="n">
-        <v>149565</v>
+        <v>181057</v>
       </c>
       <c r="C69" t="s">
         <v>578</v>
@@ -11307,7 +11307,7 @@
         <v>17451</v>
       </c>
       <c r="B70" t="n">
-        <v>149566</v>
+        <v>181058</v>
       </c>
       <c r="C70" t="s">
         <v>588</v>
@@ -11376,7 +11376,7 @@
         <v>17451</v>
       </c>
       <c r="B71" t="n">
-        <v>149567</v>
+        <v>181059</v>
       </c>
       <c r="C71" t="s">
         <v>596</v>
@@ -11506,7 +11506,7 @@
         <v>17451</v>
       </c>
       <c r="B73" t="n">
-        <v>149568</v>
+        <v>181060</v>
       </c>
       <c r="C73" t="s">
         <v>611</v>
@@ -11577,7 +11577,7 @@
         <v>17451</v>
       </c>
       <c r="B74" t="n">
-        <v>149569</v>
+        <v>181061</v>
       </c>
       <c r="C74" t="s">
         <v>618</v>
@@ -11642,7 +11642,7 @@
         <v>17451</v>
       </c>
       <c r="B75" t="n">
-        <v>149570</v>
+        <v>181062</v>
       </c>
       <c r="C75" t="s">
         <v>625</v>
@@ -11843,7 +11843,7 @@
         <v>17451</v>
       </c>
       <c r="B78" t="n">
-        <v>149571</v>
+        <v>181063</v>
       </c>
       <c r="C78" t="s">
         <v>647</v>
@@ -11908,7 +11908,7 @@
         <v>17451</v>
       </c>
       <c r="B79" t="n">
-        <v>149572</v>
+        <v>181064</v>
       </c>
       <c r="C79" t="s">
         <v>653</v>
@@ -12178,7 +12178,7 @@
         <v>17451</v>
       </c>
       <c r="B83" t="n">
-        <v>149573</v>
+        <v>181065</v>
       </c>
       <c r="C83" t="s">
         <v>682</v>
@@ -12318,7 +12318,7 @@
         <v>17451</v>
       </c>
       <c r="B85" t="n">
-        <v>149574</v>
+        <v>181066</v>
       </c>
       <c r="C85" t="s">
         <v>698</v>
@@ -12389,7 +12389,7 @@
         <v>17451</v>
       </c>
       <c r="B86" t="n">
-        <v>149575</v>
+        <v>181067</v>
       </c>
       <c r="C86" t="s">
         <v>705</v>
@@ -12454,7 +12454,7 @@
         <v>17451</v>
       </c>
       <c r="B87" t="n">
-        <v>149576</v>
+        <v>181068</v>
       </c>
       <c r="C87" t="s">
         <v>712</v>
@@ -12523,7 +12523,7 @@
         <v>17451</v>
       </c>
       <c r="B88" t="n">
-        <v>149577</v>
+        <v>181069</v>
       </c>
       <c r="C88" t="s">
         <v>719</v>
@@ -12592,7 +12592,7 @@
         <v>17451</v>
       </c>
       <c r="B89" t="n">
-        <v>149578</v>
+        <v>181070</v>
       </c>
       <c r="C89" t="s">
         <v>728</v>
@@ -12663,7 +12663,7 @@
         <v>17451</v>
       </c>
       <c r="B90" t="n">
-        <v>149579</v>
+        <v>181071</v>
       </c>
       <c r="C90" t="s">
         <v>735</v>
@@ -12728,7 +12728,7 @@
         <v>17451</v>
       </c>
       <c r="B91" t="n">
-        <v>149580</v>
+        <v>181072</v>
       </c>
       <c r="C91" t="s">
         <v>742</v>
@@ -12799,7 +12799,7 @@
         <v>17451</v>
       </c>
       <c r="B92" t="n">
-        <v>149581</v>
+        <v>181073</v>
       </c>
       <c r="C92" t="s">
         <v>750</v>
@@ -12933,7 +12933,7 @@
         <v>17451</v>
       </c>
       <c r="B94" t="n">
-        <v>149582</v>
+        <v>181074</v>
       </c>
       <c r="C94" t="s">
         <v>767</v>
@@ -12998,7 +12998,7 @@
         <v>17451</v>
       </c>
       <c r="B95" t="n">
-        <v>149583</v>
+        <v>181075</v>
       </c>
       <c r="C95" t="s">
         <v>774</v>
@@ -13128,7 +13128,7 @@
         <v>17451</v>
       </c>
       <c r="B97" t="n">
-        <v>149584</v>
+        <v>181076</v>
       </c>
       <c r="C97" t="s">
         <v>787</v>
@@ -13199,7 +13199,7 @@
         <v>17451</v>
       </c>
       <c r="B98" t="n">
-        <v>149585</v>
+        <v>149568</v>
       </c>
       <c r="C98" t="s">
         <v>797</v>
@@ -13329,7 +13329,7 @@
         <v>17451</v>
       </c>
       <c r="B100" t="n">
-        <v>149586</v>
+        <v>181077</v>
       </c>
       <c r="C100" t="s">
         <v>814</v>
@@ -13400,7 +13400,7 @@
         <v>17451</v>
       </c>
       <c r="B101" t="n">
-        <v>149587</v>
+        <v>181078</v>
       </c>
       <c r="C101" t="s">
         <v>824</v>
@@ -13465,7 +13465,7 @@
         <v>17451</v>
       </c>
       <c r="B102" t="n">
-        <v>149588</v>
+        <v>181079</v>
       </c>
       <c r="C102" t="s">
         <v>831</v>
@@ -13526,7 +13526,7 @@
         <v>17451</v>
       </c>
       <c r="B103" t="n">
-        <v>149589</v>
+        <v>181080</v>
       </c>
       <c r="C103" t="s">
         <v>838</v>
@@ -13597,7 +13597,7 @@
         <v>17451</v>
       </c>
       <c r="B104" t="n">
-        <v>149590</v>
+        <v>181081</v>
       </c>
       <c r="C104" t="s">
         <v>847</v>
@@ -13662,7 +13662,7 @@
         <v>17451</v>
       </c>
       <c r="B105" t="n">
-        <v>149591</v>
+        <v>181082</v>
       </c>
       <c r="C105" t="s">
         <v>854</v>
@@ -13727,7 +13727,7 @@
         <v>17451</v>
       </c>
       <c r="B106" t="n">
-        <v>149592</v>
+        <v>181083</v>
       </c>
       <c r="C106" t="s">
         <v>861</v>
@@ -13792,7 +13792,7 @@
         <v>17451</v>
       </c>
       <c r="B107" t="n">
-        <v>149593</v>
+        <v>181084</v>
       </c>
       <c r="C107" t="s">
         <v>868</v>
@@ -13857,7 +13857,7 @@
         <v>17451</v>
       </c>
       <c r="B108" t="n">
-        <v>149594</v>
+        <v>181085</v>
       </c>
       <c r="C108" t="s">
         <v>877</v>
@@ -13922,7 +13922,7 @@
         <v>17451</v>
       </c>
       <c r="B109" t="n">
-        <v>149595</v>
+        <v>181086</v>
       </c>
       <c r="C109" t="s">
         <v>883</v>
@@ -13993,7 +13993,7 @@
         <v>17451</v>
       </c>
       <c r="B110" t="n">
-        <v>149596</v>
+        <v>181087</v>
       </c>
       <c r="C110" t="s">
         <v>890</v>
@@ -14058,7 +14058,7 @@
         <v>17451</v>
       </c>
       <c r="B111" t="n">
-        <v>149597</v>
+        <v>181088</v>
       </c>
       <c r="C111" t="s">
         <v>900</v>
@@ -14129,7 +14129,7 @@
         <v>17451</v>
       </c>
       <c r="B112" t="n">
-        <v>149598</v>
+        <v>181089</v>
       </c>
       <c r="C112" t="s">
         <v>909</v>
@@ -14198,7 +14198,7 @@
         <v>17451</v>
       </c>
       <c r="B113" t="n">
-        <v>149599</v>
+        <v>181090</v>
       </c>
       <c r="C113" t="s">
         <v>916</v>
@@ -14269,7 +14269,7 @@
         <v>17451</v>
       </c>
       <c r="B114" t="n">
-        <v>149600</v>
+        <v>181091</v>
       </c>
       <c r="C114" t="s">
         <v>925</v>
@@ -14330,7 +14330,7 @@
         <v>17451</v>
       </c>
       <c r="B115" t="n">
-        <v>149601</v>
+        <v>181092</v>
       </c>
       <c r="C115" t="s">
         <v>934</v>
@@ -14395,7 +14395,7 @@
         <v>17451</v>
       </c>
       <c r="B116" t="n">
-        <v>149602</v>
+        <v>181093</v>
       </c>
       <c r="C116" t="s">
         <v>941</v>
@@ -14460,7 +14460,7 @@
         <v>17451</v>
       </c>
       <c r="B117" t="n">
-        <v>149603</v>
+        <v>181094</v>
       </c>
       <c r="C117" t="s">
         <v>948</v>
@@ -14665,7 +14665,7 @@
         <v>17451</v>
       </c>
       <c r="B120" t="n">
-        <v>149604</v>
+        <v>181095</v>
       </c>
       <c r="C120" t="s">
         <v>974</v>
@@ -14730,7 +14730,7 @@
         <v>17451</v>
       </c>
       <c r="B121" t="n">
-        <v>149605</v>
+        <v>181096</v>
       </c>
       <c r="C121" t="s">
         <v>980</v>
@@ -14795,7 +14795,7 @@
         <v>17451</v>
       </c>
       <c r="B122" t="n">
-        <v>149606</v>
+        <v>181097</v>
       </c>
       <c r="C122" t="s">
         <v>987</v>
@@ -14860,7 +14860,7 @@
         <v>17451</v>
       </c>
       <c r="B123" t="n">
-        <v>149607</v>
+        <v>181098</v>
       </c>
       <c r="C123" t="s">
         <v>996</v>
@@ -14931,7 +14931,7 @@
         <v>17451</v>
       </c>
       <c r="B124" t="n">
-        <v>149608</v>
+        <v>181099</v>
       </c>
       <c r="C124" t="s">
         <v>1002</v>
@@ -14996,7 +14996,7 @@
         <v>17451</v>
       </c>
       <c r="B125" t="n">
-        <v>149609</v>
+        <v>181100</v>
       </c>
       <c r="C125" t="s">
         <v>1009</v>
@@ -15067,7 +15067,7 @@
         <v>17451</v>
       </c>
       <c r="B126" t="n">
-        <v>149610</v>
+        <v>181101</v>
       </c>
       <c r="C126" t="s">
         <v>1018</v>
@@ -15207,7 +15207,7 @@
         <v>17451</v>
       </c>
       <c r="B128" t="n">
-        <v>149611</v>
+        <v>181102</v>
       </c>
       <c r="C128" t="s">
         <v>1034</v>
@@ -15343,7 +15343,7 @@
         <v>17451</v>
       </c>
       <c r="B130" t="n">
-        <v>149612</v>
+        <v>181103</v>
       </c>
       <c r="C130" t="s">
         <v>1048</v>
@@ -15408,7 +15408,7 @@
         <v>17451</v>
       </c>
       <c r="B131" t="n">
-        <v>149613</v>
+        <v>181104</v>
       </c>
       <c r="C131" t="s">
         <v>1054</v>
@@ -15544,7 +15544,7 @@
         <v>17451</v>
       </c>
       <c r="B133" t="n">
-        <v>149614</v>
+        <v>181105</v>
       </c>
       <c r="C133" t="s">
         <v>1068</v>
@@ -15609,7 +15609,7 @@
         <v>17451</v>
       </c>
       <c r="B134" t="n">
-        <v>149615</v>
+        <v>181106</v>
       </c>
       <c r="C134" t="s">
         <v>1077</v>
@@ -15751,7 +15751,7 @@
         <v>17451</v>
       </c>
       <c r="B136" t="n">
-        <v>149616</v>
+        <v>181107</v>
       </c>
       <c r="C136" t="s">
         <v>1093</v>
@@ -15822,7 +15822,7 @@
         <v>17451</v>
       </c>
       <c r="B137" t="n">
-        <v>149617</v>
+        <v>181108</v>
       </c>
       <c r="C137" t="s">
         <v>1099</v>
@@ -15958,7 +15958,7 @@
         <v>17451</v>
       </c>
       <c r="B139" t="n">
-        <v>149618</v>
+        <v>181109</v>
       </c>
       <c r="C139" t="s">
         <v>1116</v>
@@ -16023,7 +16023,7 @@
         <v>17451</v>
       </c>
       <c r="B140" t="n">
-        <v>149619</v>
+        <v>181110</v>
       </c>
       <c r="C140" t="s">
         <v>1123</v>
@@ -16092,7 +16092,7 @@
         <v>17451</v>
       </c>
       <c r="B141" t="n">
-        <v>149620</v>
+        <v>181111</v>
       </c>
       <c r="C141" t="s">
         <v>1129</v>
@@ -16157,7 +16157,7 @@
         <v>17451</v>
       </c>
       <c r="B142" t="n">
-        <v>149621</v>
+        <v>181112</v>
       </c>
       <c r="C142" t="s">
         <v>1135</v>
@@ -16222,7 +16222,7 @@
         <v>17451</v>
       </c>
       <c r="B143" t="n">
-        <v>149622</v>
+        <v>181113</v>
       </c>
       <c r="C143" t="s">
         <v>1142</v>
@@ -16287,7 +16287,7 @@
         <v>17451</v>
       </c>
       <c r="B144" t="n">
-        <v>149623</v>
+        <v>181114</v>
       </c>
       <c r="C144" t="s">
         <v>1151</v>
@@ -16358,7 +16358,7 @@
         <v>17451</v>
       </c>
       <c r="B145" t="n">
-        <v>149624</v>
+        <v>181115</v>
       </c>
       <c r="C145" t="s">
         <v>1158</v>
@@ -16565,7 +16565,7 @@
         <v>17451</v>
       </c>
       <c r="B148" t="n">
-        <v>149625</v>
+        <v>181116</v>
       </c>
       <c r="C148" t="s">
         <v>1183</v>
@@ -16705,7 +16705,7 @@
         <v>17451</v>
       </c>
       <c r="B150" t="n">
-        <v>149626</v>
+        <v>181117</v>
       </c>
       <c r="C150" t="s">
         <v>1200</v>
@@ -16912,7 +16912,7 @@
         <v>17451</v>
       </c>
       <c r="B153" t="n">
-        <v>149627</v>
+        <v>181118</v>
       </c>
       <c r="C153" t="s">
         <v>1221</v>
@@ -16987,7 +16987,7 @@
         <v>17451</v>
       </c>
       <c r="B154" t="n">
-        <v>149628</v>
+        <v>181119</v>
       </c>
       <c r="C154" t="s">
         <v>1228</v>
@@ -17058,7 +17058,7 @@
         <v>17451</v>
       </c>
       <c r="B155" t="n">
-        <v>149629</v>
+        <v>181120</v>
       </c>
       <c r="C155" t="s">
         <v>1234</v>
@@ -17265,7 +17265,7 @@
         <v>17451</v>
       </c>
       <c r="B158" t="n">
-        <v>149630</v>
+        <v>181121</v>
       </c>
       <c r="C158" t="s">
         <v>1253</v>
@@ -17336,7 +17336,7 @@
         <v>17451</v>
       </c>
       <c r="B159" t="n">
-        <v>149631</v>
+        <v>181122</v>
       </c>
       <c r="C159" t="s">
         <v>1261</v>
@@ -17405,7 +17405,7 @@
         <v>17451</v>
       </c>
       <c r="B160" t="n">
-        <v>149632</v>
+        <v>181123</v>
       </c>
       <c r="C160" t="s">
         <v>1268</v>
@@ -17539,7 +17539,7 @@
         <v>17451</v>
       </c>
       <c r="B162" t="n">
-        <v>149633</v>
+        <v>181124</v>
       </c>
       <c r="C162" t="s">
         <v>1286</v>
@@ -17608,7 +17608,7 @@
         <v>17451</v>
       </c>
       <c r="B163" t="n">
-        <v>149634</v>
+        <v>181125</v>
       </c>
       <c r="C163" t="s">
         <v>1293</v>
@@ -17677,7 +17677,7 @@
         <v>17451</v>
       </c>
       <c r="B164" t="n">
-        <v>149635</v>
+        <v>181126</v>
       </c>
       <c r="C164" t="s">
         <v>1299</v>
@@ -17742,7 +17742,7 @@
         <v>17451</v>
       </c>
       <c r="B165" t="n">
-        <v>149636</v>
+        <v>181127</v>
       </c>
       <c r="C165" t="s">
         <v>1308</v>
@@ -17807,7 +17807,7 @@
         <v>17451</v>
       </c>
       <c r="B166" t="n">
-        <v>149637</v>
+        <v>181128</v>
       </c>
       <c r="C166" t="s">
         <v>1315</v>
@@ -17872,7 +17872,7 @@
         <v>17451</v>
       </c>
       <c r="B167" t="n">
-        <v>149638</v>
+        <v>181129</v>
       </c>
       <c r="C167" t="s">
         <v>1323</v>
@@ -17937,7 +17937,7 @@
         <v>17451</v>
       </c>
       <c r="B168" t="n">
-        <v>149639</v>
+        <v>181130</v>
       </c>
       <c r="C168" t="s">
         <v>1332</v>
@@ -18209,7 +18209,7 @@
         <v>17451</v>
       </c>
       <c r="B172" t="n">
-        <v>149640</v>
+        <v>181131</v>
       </c>
       <c r="C172" t="s">
         <v>1367</v>
@@ -18280,7 +18280,7 @@
         <v>17451</v>
       </c>
       <c r="B173" t="n">
-        <v>149641</v>
+        <v>181132</v>
       </c>
       <c r="C173" t="s">
         <v>1373</v>
@@ -18349,7 +18349,7 @@
         <v>17451</v>
       </c>
       <c r="B174" t="n">
-        <v>149642</v>
+        <v>181133</v>
       </c>
       <c r="C174" t="s">
         <v>1380</v>
@@ -18414,7 +18414,7 @@
         <v>17451</v>
       </c>
       <c r="B175" t="n">
-        <v>149643</v>
+        <v>181134</v>
       </c>
       <c r="C175" t="s">
         <v>1389</v>
@@ -18548,7 +18548,7 @@
         <v>17451</v>
       </c>
       <c r="B177" t="n">
-        <v>149644</v>
+        <v>181135</v>
       </c>
       <c r="C177" t="s">
         <v>1405</v>
@@ -18613,7 +18613,7 @@
         <v>17451</v>
       </c>
       <c r="B178" t="n">
-        <v>149645</v>
+        <v>181136</v>
       </c>
       <c r="C178" t="s">
         <v>1412</v>
@@ -18887,7 +18887,7 @@
         <v>17451</v>
       </c>
       <c r="B182" t="n">
-        <v>149646</v>
+        <v>181137</v>
       </c>
       <c r="C182" t="s">
         <v>1442</v>
@@ -18956,7 +18956,7 @@
         <v>17451</v>
       </c>
       <c r="B183" t="n">
-        <v>149647</v>
+        <v>181138</v>
       </c>
       <c r="C183" t="s">
         <v>1452</v>
@@ -19082,7 +19082,7 @@
         <v>17451</v>
       </c>
       <c r="B185" t="n">
-        <v>149648</v>
+        <v>181139</v>
       </c>
       <c r="C185" t="s">
         <v>1467</v>
@@ -19147,7 +19147,7 @@
         <v>17451</v>
       </c>
       <c r="B186" t="n">
-        <v>149649</v>
+        <v>181140</v>
       </c>
       <c r="C186" t="s">
         <v>1474</v>
@@ -19277,7 +19277,7 @@
         <v>17451</v>
       </c>
       <c r="B188" t="n">
-        <v>149650</v>
+        <v>181141</v>
       </c>
       <c r="C188" t="s">
         <v>1490</v>
@@ -19411,7 +19411,7 @@
         <v>17451</v>
       </c>
       <c r="B190" t="n">
-        <v>149651</v>
+        <v>181142</v>
       </c>
       <c r="C190" t="s">
         <v>1504</v>
@@ -19476,7 +19476,7 @@
         <v>17451</v>
       </c>
       <c r="B191" t="n">
-        <v>149652</v>
+        <v>181143</v>
       </c>
       <c r="C191" t="s">
         <v>1511</v>
@@ -19618,7 +19618,7 @@
         <v>17451</v>
       </c>
       <c r="B193" t="n">
-        <v>149653</v>
+        <v>181144</v>
       </c>
       <c r="C193" t="s">
         <v>1528</v>
@@ -19679,7 +19679,7 @@
         <v>17451</v>
       </c>
       <c r="B194" t="n">
-        <v>149654</v>
+        <v>181145</v>
       </c>
       <c r="C194" t="s">
         <v>1535</v>
@@ -19809,7 +19809,7 @@
         <v>17451</v>
       </c>
       <c r="B196" t="n">
-        <v>149584</v>
+        <v>149568</v>
       </c>
       <c r="C196" t="s">
         <v>797</v>
@@ -19945,7 +19945,7 @@
         <v>17451</v>
       </c>
       <c r="B198" t="n">
-        <v>149655</v>
+        <v>181146</v>
       </c>
       <c r="C198" t="s">
         <v>1561</v>
@@ -20016,7 +20016,7 @@
         <v>17451</v>
       </c>
       <c r="B199" t="n">
-        <v>149656</v>
+        <v>181147</v>
       </c>
       <c r="C199" t="s">
         <v>1568</v>
@@ -20152,7 +20152,7 @@
         <v>17451</v>
       </c>
       <c r="B201" t="n">
-        <v>149657</v>
+        <v>181148</v>
       </c>
       <c r="C201" t="s">
         <v>1584</v>
@@ -20217,7 +20217,7 @@
         <v>17451</v>
       </c>
       <c r="B202" t="n">
-        <v>149658</v>
+        <v>181149</v>
       </c>
       <c r="C202" t="s">
         <v>1591</v>
@@ -20282,7 +20282,7 @@
         <v>17451</v>
       </c>
       <c r="B203" t="n">
-        <v>149659</v>
+        <v>181150</v>
       </c>
       <c r="C203" t="s">
         <v>1598</v>
@@ -20351,7 +20351,7 @@
         <v>17451</v>
       </c>
       <c r="B204" t="n">
-        <v>149660</v>
+        <v>181151</v>
       </c>
       <c r="C204" t="s">
         <v>1607</v>
@@ -20556,7 +20556,7 @@
         <v>17451</v>
       </c>
       <c r="B207" t="n">
-        <v>149661</v>
+        <v>181152</v>
       </c>
       <c r="C207" t="s">
         <v>1628</v>
@@ -20627,7 +20627,7 @@
         <v>17451</v>
       </c>
       <c r="B208" t="n">
-        <v>149662</v>
+        <v>181153</v>
       </c>
       <c r="C208" t="s">
         <v>1634</v>
@@ -20698,7 +20698,7 @@
         <v>17451</v>
       </c>
       <c r="B209" t="n">
-        <v>149663</v>
+        <v>181154</v>
       </c>
       <c r="C209" t="s">
         <v>1641</v>
@@ -20767,7 +20767,7 @@
         <v>17451</v>
       </c>
       <c r="B210" t="n">
-        <v>149664</v>
+        <v>181155</v>
       </c>
       <c r="C210" t="s">
         <v>1650</v>
@@ -20838,7 +20838,7 @@
         <v>17451</v>
       </c>
       <c r="B211" t="n">
-        <v>149665</v>
+        <v>181156</v>
       </c>
       <c r="C211" t="s">
         <v>1657</v>
@@ -20907,7 +20907,7 @@
         <v>17451</v>
       </c>
       <c r="B212" t="n">
-        <v>149666</v>
+        <v>181157</v>
       </c>
       <c r="C212" t="s">
         <v>1664</v>
@@ -20972,7 +20972,7 @@
         <v>17451</v>
       </c>
       <c r="B213" t="n">
-        <v>149667</v>
+        <v>181158</v>
       </c>
       <c r="C213" t="s">
         <v>1672</v>
@@ -21037,7 +21037,7 @@
         <v>17451</v>
       </c>
       <c r="B214" t="n">
-        <v>149668</v>
+        <v>181159</v>
       </c>
       <c r="C214" t="s">
         <v>1679</v>
@@ -21102,7 +21102,7 @@
         <v>17451</v>
       </c>
       <c r="B215" t="n">
-        <v>149669</v>
+        <v>181160</v>
       </c>
       <c r="C215" t="s">
         <v>1688</v>
@@ -21171,7 +21171,7 @@
         <v>17451</v>
       </c>
       <c r="B216" t="n">
-        <v>149670</v>
+        <v>181161</v>
       </c>
       <c r="C216" t="s">
         <v>1696</v>
@@ -21240,7 +21240,7 @@
         <v>17451</v>
       </c>
       <c r="B217" t="n">
-        <v>149671</v>
+        <v>181162</v>
       </c>
       <c r="C217" t="s">
         <v>1703</v>
@@ -21305,7 +21305,7 @@
         <v>17451</v>
       </c>
       <c r="B218" t="n">
-        <v>149672</v>
+        <v>181163</v>
       </c>
       <c r="C218" t="s">
         <v>1709</v>
@@ -21370,7 +21370,7 @@
         <v>17451</v>
       </c>
       <c r="B219" t="n">
-        <v>149673</v>
+        <v>181164</v>
       </c>
       <c r="C219" t="s">
         <v>1718</v>
@@ -21439,7 +21439,7 @@
         <v>17451</v>
       </c>
       <c r="B220" t="n">
-        <v>149674</v>
+        <v>181165</v>
       </c>
       <c r="C220" t="s">
         <v>1725</v>
@@ -21504,7 +21504,7 @@
         <v>17451</v>
       </c>
       <c r="B221" t="n">
-        <v>149675</v>
+        <v>181166</v>
       </c>
       <c r="C221" t="s">
         <v>1731</v>
@@ -21636,7 +21636,7 @@
         <v>17451</v>
       </c>
       <c r="B223" t="n">
-        <v>149676</v>
+        <v>181167</v>
       </c>
       <c r="C223" t="s">
         <v>1747</v>
@@ -21697,7 +21697,7 @@
         <v>17451</v>
       </c>
       <c r="B224" t="n">
-        <v>149677</v>
+        <v>181168</v>
       </c>
       <c r="C224" t="s">
         <v>1754</v>
@@ -21762,7 +21762,7 @@
         <v>17451</v>
       </c>
       <c r="B225" t="n">
-        <v>149678</v>
+        <v>181169</v>
       </c>
       <c r="C225" t="s">
         <v>1761</v>
@@ -21831,7 +21831,7 @@
         <v>17451</v>
       </c>
       <c r="B226" t="n">
-        <v>149679</v>
+        <v>181170</v>
       </c>
       <c r="C226" t="s">
         <v>1768</v>
@@ -22034,7 +22034,7 @@
         <v>17451</v>
       </c>
       <c r="B229" t="n">
-        <v>149680</v>
+        <v>181171</v>
       </c>
       <c r="C229" t="s">
         <v>1791</v>
@@ -22103,7 +22103,7 @@
         <v>17451</v>
       </c>
       <c r="B230" t="n">
-        <v>149681</v>
+        <v>181172</v>
       </c>
       <c r="C230" t="s">
         <v>1797</v>
@@ -22174,7 +22174,7 @@
         <v>17451</v>
       </c>
       <c r="B231" t="n">
-        <v>149682</v>
+        <v>181173</v>
       </c>
       <c r="C231" t="s">
         <v>1804</v>
@@ -22515,7 +22515,7 @@
         <v>17451</v>
       </c>
       <c r="B236" t="n">
-        <v>149683</v>
+        <v>181174</v>
       </c>
       <c r="C236" t="s">
         <v>1843</v>
@@ -22586,7 +22586,7 @@
         <v>17451</v>
       </c>
       <c r="B237" t="n">
-        <v>149684</v>
+        <v>181175</v>
       </c>
       <c r="C237" t="s">
         <v>1850</v>
@@ -22726,7 +22726,7 @@
         <v>17451</v>
       </c>
       <c r="B239" t="n">
-        <v>149685</v>
+        <v>181176</v>
       </c>
       <c r="C239" t="s">
         <v>1864</v>
@@ -22931,7 +22931,7 @@
         <v>17451</v>
       </c>
       <c r="B242" t="n">
-        <v>149686</v>
+        <v>181177</v>
       </c>
       <c r="C242" t="s">
         <v>1885</v>
@@ -22992,7 +22992,7 @@
         <v>17451</v>
       </c>
       <c r="B243" t="n">
-        <v>149687</v>
+        <v>181178</v>
       </c>
       <c r="C243" t="s">
         <v>1892</v>
@@ -23063,7 +23063,7 @@
         <v>17451</v>
       </c>
       <c r="B244" t="n">
-        <v>149688</v>
+        <v>181179</v>
       </c>
       <c r="C244" t="s">
         <v>1901</v>
@@ -23197,7 +23197,7 @@
         <v>17451</v>
       </c>
       <c r="B246" t="n">
-        <v>149689</v>
+        <v>181180</v>
       </c>
       <c r="C246" t="s">
         <v>1917</v>
@@ -23335,7 +23335,7 @@
         <v>17451</v>
       </c>
       <c r="B248" t="n">
-        <v>149690</v>
+        <v>181181</v>
       </c>
       <c r="C248" t="s">
         <v>1934</v>
@@ -23400,7 +23400,7 @@
         <v>17451</v>
       </c>
       <c r="B249" t="n">
-        <v>149691</v>
+        <v>181182</v>
       </c>
       <c r="C249" t="s">
         <v>1941</v>
@@ -23664,7 +23664,7 @@
         <v>17451</v>
       </c>
       <c r="B253" t="n">
-        <v>149692</v>
+        <v>181183</v>
       </c>
       <c r="C253" t="s">
         <v>1973</v>
@@ -23804,7 +23804,7 @@
         <v>17451</v>
       </c>
       <c r="B255" t="n">
-        <v>149693</v>
+        <v>181184</v>
       </c>
       <c r="C255" t="s">
         <v>1988</v>
@@ -23875,7 +23875,7 @@
         <v>17451</v>
       </c>
       <c r="B256" t="n">
-        <v>149694</v>
+        <v>181185</v>
       </c>
       <c r="C256" t="s">
         <v>1995</v>
@@ -23946,7 +23946,7 @@
         <v>17451</v>
       </c>
       <c r="B257" t="n">
-        <v>149695</v>
+        <v>181186</v>
       </c>
       <c r="C257" t="s">
         <v>2002</v>
@@ -24015,7 +24015,7 @@
         <v>17451</v>
       </c>
       <c r="B258" t="n">
-        <v>149696</v>
+        <v>181187</v>
       </c>
       <c r="C258" t="s">
         <v>2011</v>
